--- a/GrocceryApplication/src/test/resources/Testdata.xlsx
+++ b/GrocceryApplication/src/test/resources/Testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>admins</t>
+  </si>
+  <si>
+    <t>sadiya</t>
+  </si>
+  <si>
+    <t>sadiyaa</t>
   </si>
 </sst>
 </file>
@@ -364,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +410,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GrocceryApplication/src/test/resources/Testdata.xlsx
+++ b/GrocceryApplication/src/test/resources/Testdata.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="ManageNews" sheetId="2" r:id="rId2"/>
+    <sheet name="AdminPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -28,7 +30,7 @@
     <t>sadiya</t>
   </si>
   <si>
-    <t>sadiyaa</t>
+    <t>new year offer</t>
   </si>
 </sst>
 </file>
@@ -370,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,12 +412,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
